--- a/作业/实验2-动态黑盒测试/等价类划分.xlsx
+++ b/作业/实验2-动态黑盒测试/等价类划分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12585"/>
+    <workbookView windowWidth="28800" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>关闭ATM系统</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>交易不成功</t>
+  </si>
+  <si>
+    <t>取钱金额超出ATM值</t>
+  </si>
+  <si>
+    <t>转移到自己账户</t>
+  </si>
+  <si>
+    <t>转移到不存在账户</t>
+  </si>
+  <si>
+    <t>转钱超过ATM值</t>
+  </si>
+  <si>
+    <t>RKCCPNDFQNVESXFD</t>
   </si>
 </sst>
 </file>
@@ -92,12 +107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,53 +122,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,8 +174,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,9 +213,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,45 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,31 +280,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,139 +436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,11 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +540,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,26 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -580,32 +598,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,152 +622,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,28 +780,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,7 +1143,7 @@
   <dimension ref="G2:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1187,221 +1183,232 @@
       </c>
     </row>
     <row r="5" spans="7:9">
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="7:9">
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="7:9">
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="7:9">
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="7:9">
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="7:9">
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="7:9">
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="7:9">
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="7:9">
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="7:9">
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="7:9">
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="7:9">
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="7:9">
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="7:9">
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="7:9">
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="7:9">
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="7:9">
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="7:9">
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="7:9">
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="7:9">
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="7:9">
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="7:9">
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="7:9">
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="7:9">
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="7:9">
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="7:9">
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="7:9">
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="7:9">
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="7:9">
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="7:9">
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="7:9">
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="7:9">
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="7:9">
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="7:9">
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="7:9">
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
